--- a/Documentation/UseCases - Scenarios/Scenarios/ScenariosUser.xlsx
+++ b/Documentation/UseCases - Scenarios/Scenarios/ScenariosUser.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel.PITTET\Documents\GitHub\TPI_2023\Rapport de projet\UseCases - Scenarios\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel.PITTET\Documents\GitHub\TPI_2023\Documentation\UseCases - Scenarios\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C6FC3-2D07-43D9-9793-4906DD0A6D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8471594-2DF8-4585-BD7C-1ACDAFED236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1995" windowWidth="21600" windowHeight="11835" firstSheet="2" activeTab="3" xr2:uid="{3CC9808D-9F48-48C1-8654-DA68AC4A64CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{3CC9808D-9F48-48C1-8654-DA68AC4A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Déconnexion" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Action utilisateur</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Affiche un formulaire</t>
   </si>
   <si>
-    <t>Tout les champs sont remplis</t>
-  </si>
-  <si>
     <t>Les champs ne sont pas tous remplis ou les données entrées ne sont pas valides</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Clique sur le bouton &lt;Mes biens&gt;</t>
   </si>
   <si>
-    <t>Affiche une page des gestion des biens du user</t>
-  </si>
-  <si>
     <t>Clique sur le bouton &lt;Ajouter&gt;</t>
   </si>
   <si>
@@ -114,7 +108,7 @@
     <t>Envoie un mail de confirmation à l'utilisateur et au loueur</t>
   </si>
   <si>
-    <t>Affiche une page d'historiques des locations effectuées</t>
+    <t>Affiche une page de gestion des biens du user</t>
   </si>
 </sst>
 </file>
@@ -384,8 +378,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92B2E616-679C-4B95-B946-3046EBCC29B4}" name="Tableau1235" displayName="Tableau1235" ref="A2:C21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A2:C21" xr:uid="{92B2E616-679C-4B95-B946-3046EBCC29B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92B2E616-679C-4B95-B946-3046EBCC29B4}" name="Tableau1235" displayName="Tableau1235" ref="A2:C20" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A2:C20" xr:uid="{92B2E616-679C-4B95-B946-3046EBCC29B4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7138ABF2-6E4D-4179-AB45-97C37E1A3580}" name="Action utilisateur" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{7C61B928-9905-465F-ADCA-2E908188D0ED}" name="Condition" dataDxfId="1"/>
@@ -836,7 +830,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,11 +858,11 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,45 +877,45 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,7 +989,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +999,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1023,11 +1017,11 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,7 +1036,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -1051,36 +1045,36 @@
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1151,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4360B528-F050-467B-9D37-0453A7A49088}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1158,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1182,43 +1176,43 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1226,9 +1220,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -1289,11 +1281,6 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
